--- a/swing_strategy_vix_sim_balanced_20260220.xlsx
+++ b/swing_strategy_vix_sim_balanced_20260220.xlsx
@@ -450,7 +450,7 @@
     <col width="10" customWidth="1" min="15" max="15"/>
     <col width="15" customWidth="1" min="16" max="16"/>
     <col width="24" customWidth="1" min="17" max="17"/>
-    <col width="12" customWidth="1" min="18" max="18"/>
+    <col width="16" customWidth="1" min="18" max="18"/>
     <col width="10" customWidth="1" min="19" max="19"/>
     <col width="12" customWidth="1" min="20" max="20"/>
     <col width="16" customWidth="1" min="21" max="21"/>
@@ -601,7 +601,7 @@
         <v>390.82</v>
       </c>
       <c r="G2" t="n">
-        <v>443.72</v>
+        <v>430.65</v>
       </c>
       <c r="H2" t="n">
         <v>97.98</v>
@@ -690,7 +690,7 @@
         <v>232.99</v>
       </c>
       <c r="G3" t="n">
-        <v>255.14</v>
+        <v>259.3</v>
       </c>
       <c r="H3" t="n">
         <v>84.13</v>
@@ -868,7 +868,7 @@
         <v>27.19</v>
       </c>
       <c r="G5" t="n">
-        <v>30.07</v>
+        <v>31.02</v>
       </c>
       <c r="H5" t="n">
         <v>96.26000000000001</v>
@@ -957,7 +957,7 @@
         <v>571.63</v>
       </c>
       <c r="G6" t="n">
-        <v>640.79</v>
+        <v>651.47</v>
       </c>
       <c r="H6" t="n">
         <v>99.8</v>
@@ -1028,79 +1028,79 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PEN</t>
+          <t>AVO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>340.68</v>
+        <v>14.8</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>338.91 - 343.62</t>
+          <t>14.74 - 14.94</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>341.27</v>
+        <v>14.84</v>
       </c>
       <c r="F7" t="n">
-        <v>323.64</v>
+        <v>13.65</v>
       </c>
       <c r="G7" t="n">
-        <v>354.2</v>
+        <v>15.4</v>
       </c>
       <c r="H7" t="n">
-        <v>73.72</v>
+        <v>71.45999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.55</v>
+        <v>-0.08</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5600000000000001</v>
+        <v>-0.04</v>
       </c>
       <c r="L7" t="n">
-        <v>0.18</v>
+        <v>-0.1</v>
       </c>
       <c r="M7" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>0.96</v>
+        <v>0.34</v>
       </c>
       <c r="O7" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="P7" t="n">
-        <v>13389872128</v>
+        <v>1045587648</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>趋势未启动，仅观察</t>
+          <t>趋势停滞且资金分歧，等待确认</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>59.41</v>
+        <v>25.38</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>趋势中资金分歧</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1112,61 +1112,61 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CDE</t>
+          <t>PEN</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>24.06</v>
+        <v>340.68</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23.74 - 24.07</t>
+          <t>338.91 - 343.62</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>23.91</v>
+        <v>341.27</v>
       </c>
       <c r="F8" t="n">
-        <v>22</v>
+        <v>323.64</v>
       </c>
       <c r="G8" t="n">
-        <v>24.82</v>
+        <v>354.2</v>
       </c>
       <c r="H8" t="n">
-        <v>97</v>
+        <v>73.72</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>4.47</v>
+        <v>0.55</v>
       </c>
       <c r="K8" t="n">
-        <v>2.42</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>0.77</v>
+        <v>0.18</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="N8" t="n">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="O8" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="P8" t="n">
-        <v>14507409408</v>
+        <v>13389872128</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1175,11 +1175,11 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>51.71</v>
+        <v>59.41</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>底部试探</t>
+          <t>极度缩量(隐蔽吸筹)</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1194,68 +1194,68 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SIG</t>
+          <t>CDE</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>95.06999999999999</v>
+        <v>24.06</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.90 - 95.21</t>
+          <t>23.74 - 24.07</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>94.55</v>
+        <v>23.91</v>
       </c>
       <c r="F9" t="n">
-        <v>87.45999999999999</v>
+        <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>98.16</v>
+        <v>25.41</v>
       </c>
       <c r="H9" t="n">
-        <v>79.5</v>
+        <v>97</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>1.86</v>
+        <v>4.47</v>
       </c>
       <c r="K9" t="n">
-        <v>3.08</v>
+        <v>2.42</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03</v>
+        <v>0.77</v>
       </c>
       <c r="M9" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="N9" t="n">
-        <v>1.15</v>
+        <v>0.87</v>
       </c>
       <c r="O9" t="n">
-        <v>0.66</v>
+        <v>0.33</v>
       </c>
       <c r="P9" t="n">
-        <v>3900378880</v>
+        <v>14507409408</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1264,21 +1264,21 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>50.43</v>
+        <v>55.87</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>底部试探</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1290,61 +1290,61 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>SIG</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>187.9</v>
+        <v>95.06999999999999</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>185.68 - 188.27</t>
+          <t>94.41 - 95.73</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>186.98</v>
+        <v>95.06999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>177.26</v>
+        <v>87.45999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>197.83</v>
+        <v>98.68000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>66.45999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>0.65</v>
+        <v>1.86</v>
       </c>
       <c r="K10" t="n">
-        <v>0.67</v>
+        <v>3.08</v>
       </c>
       <c r="L10" t="n">
-        <v>0.62</v>
+        <v>0.03</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>0.08</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7</v>
+        <v>1.15</v>
       </c>
       <c r="O10" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="P10" t="n">
-        <v>4576749027328</v>
+        <v>3900378880</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>48.43</v>
+        <v>50.43</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1367,12 +1367,12 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -1384,65 +1384,65 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>125.4</v>
+        <v>187.9</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>123.91 - 125.64</t>
+          <t>185.68 - 188.27</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>124.78</v>
+        <v>186.98</v>
       </c>
       <c r="F11" t="n">
-        <v>117.45</v>
+        <v>177.26</v>
       </c>
       <c r="G11" t="n">
-        <v>129.54</v>
+        <v>196.08</v>
       </c>
       <c r="H11" t="n">
-        <v>94.02</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="I11" t="n">
         <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>0.99</v>
+        <v>0.65</v>
       </c>
       <c r="K11" t="n">
-        <v>1.08</v>
+        <v>0.67</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2</v>
+        <v>0.62</v>
       </c>
       <c r="M11" t="n">
-        <v>0.23</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.01</v>
+        <v>0.64</v>
       </c>
       <c r="P11" t="n">
-        <v>136965693440</v>
+        <v>4576749027328</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>量价支持不足</t>
+          <t>趋势未启动，仅观察</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>46.24</v>
+        <v>50.23</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1461,68 +1461,68 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FOR</t>
+          <t>NEM</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29.65</v>
+        <v>125.4</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29.48 - 29.89</t>
+          <t>123.91 - 125.64</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.68</v>
+        <v>124.78</v>
       </c>
       <c r="F12" t="n">
-        <v>28.15</v>
+        <v>117.45</v>
       </c>
       <c r="G12" t="n">
-        <v>31.45</v>
+        <v>129.54</v>
       </c>
       <c r="H12" t="n">
-        <v>69.3</v>
+        <v>94.02</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.06</v>
+        <v>1.08</v>
       </c>
       <c r="L12" t="n">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
       <c r="N12" t="n">
-        <v>0.36</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="P12" t="n">
-        <v>1528289152</v>
+        <v>136965693440</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1531,11 +1531,11 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>35.3</v>
+        <v>46.24</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>趋势中资金分歧</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
@@ -1570,17 +1570,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>64.35 - 65.24</t>
+          <t>64.34 - 65.24</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>64.8</v>
+        <v>64.79000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>61.45</v>
+        <v>61.44</v>
       </c>
       <c r="G13" t="n">
-        <v>67.26000000000001</v>
+        <v>67.25</v>
       </c>
       <c r="H13" t="n">
         <v>65.98</v>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>阶段不明，仅观察</t>
+          <t>量价支持不足</t>
         </is>
       </c>
       <c r="S13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -1651,66 +1651,69 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DBRG</t>
+          <t>OLPX</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15.41</v>
+        <v>1.64</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>15.32 - 15.53</t>
+          <t>1.61 - 1.63</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15.43</v>
+        <v>1.62</v>
       </c>
       <c r="F14" t="n">
-        <v>14.63</v>
+        <v>1.49</v>
       </c>
       <c r="G14" t="n">
-        <v>16.37</v>
+        <v>1.68</v>
       </c>
       <c r="H14" t="n">
-        <v>84.3</v>
+        <v>73.89</v>
       </c>
       <c r="I14" t="n">
         <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>1.28</v>
+        <v>-0.25</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.17</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.95</v>
+        <v>-0.04</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="N14" t="n">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.39</v>
+        <v>0.7</v>
       </c>
       <c r="P14" t="n">
-        <v>3006718976</v>
+        <v>1081369344</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>阶段不明，仅观察</t>
+          <t>量价支持不足</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>41.28</v>
+        <v>38.8</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -1720,12 +1723,12 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -1737,52 +1740,52 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>OLPX</t>
+          <t>ASO</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.64</v>
+        <v>59.07</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.61 - 1.63</t>
+          <t>58.49 - 59.30</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.62</v>
+        <v>58.9</v>
       </c>
       <c r="F15" t="n">
-        <v>1.49</v>
+        <v>55.84</v>
       </c>
       <c r="G15" t="n">
-        <v>1.7</v>
+        <v>61.14</v>
       </c>
       <c r="H15" t="n">
-        <v>73.89</v>
+        <v>66.84999999999999</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.25</v>
+        <v>0.09</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.17</v>
+        <v>0.14</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.04</v>
+        <v>0.03</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.01</v>
+        <v>0.18</v>
       </c>
       <c r="N15" t="n">
-        <v>0.98</v>
+        <v>1.15</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P15" t="n">
-        <v>1081369344</v>
+        <v>3936864000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1791,11 +1794,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>阶段不明，仅观察</t>
+          <t>量价支持不足</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>38.8</v>
+        <v>36.54</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1804,17 +1807,17 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -1826,84 +1829,84 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ASO</t>
+          <t>FOR</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>59.07</v>
+        <v>29.65</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>58.49 - 59.30</t>
+          <t>29.48 - 29.89</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>58.9</v>
+        <v>29.68</v>
       </c>
       <c r="F16" t="n">
-        <v>55.84</v>
+        <v>28.15</v>
       </c>
       <c r="G16" t="n">
-        <v>61.14</v>
+        <v>30.81</v>
       </c>
       <c r="H16" t="n">
-        <v>66.84999999999999</v>
+        <v>69.3</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
       </c>
       <c r="J16" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="L16" t="n">
         <v>0.09</v>
       </c>
-      <c r="K16" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.03</v>
-      </c>
       <c r="M16" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="N16" t="n">
-        <v>1.15</v>
+        <v>0.36</v>
       </c>
       <c r="O16" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.44</v>
       </c>
       <c r="P16" t="n">
-        <v>3936864000</v>
+        <v>1528289152</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>阶段不明，仅观察</t>
+          <t>量价支持不足</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>34.74</v>
+        <v>35.3</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>趋势中资金分歧</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -1915,56 +1918,53 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AVO</t>
+          <t>DBRG</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14.8</v>
+        <v>15.41</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>14.74 - 14.94</t>
+          <t>15.32 - 15.53</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>14.84</v>
+        <v>15.43</v>
       </c>
       <c r="F17" t="n">
-        <v>13.65</v>
+        <v>14.63</v>
       </c>
       <c r="G17" t="n">
-        <v>15.4</v>
+        <v>16.01</v>
       </c>
       <c r="H17" t="n">
-        <v>71.45999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.08</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-0.04</v>
+        <v>1.28</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.1</v>
+        <v>-0.95</v>
       </c>
       <c r="M17" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.02</v>
       </c>
       <c r="N17" t="n">
-        <v>0.34</v>
+        <v>0.96</v>
       </c>
       <c r="O17" t="n">
-        <v>0.39</v>
+        <v>-0.39</v>
       </c>
       <c r="P17" t="n">
-        <v>1045587648</v>
+        <v>3006718976</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1973,16 +1973,16 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>25.38</v>
+        <v>41.28</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>趋势中资金分歧</t>
+          <t>极度缩量(隐蔽吸筹)</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
         <v>287.93</v>
       </c>
       <c r="G20" t="n">
-        <v>315.16</v>
+        <v>321.43</v>
       </c>
       <c r="H20" t="n">
         <v>83.28</v>
@@ -2289,7 +2289,7 @@
         <v>29.2</v>
       </c>
       <c r="G21" t="n">
-        <v>32.92</v>
+        <v>33.69</v>
       </c>
       <c r="H21" t="n">
         <v>24.2</v>
@@ -2378,7 +2378,7 @@
         <v>191.23</v>
       </c>
       <c r="G22" t="n">
-        <v>228.21</v>
+        <v>218.16</v>
       </c>
       <c r="H22" t="n">
         <v>42.76</v>
@@ -2467,7 +2467,7 @@
         <v>314.73</v>
       </c>
       <c r="G23" t="n">
-        <v>347.31</v>
+        <v>355.92</v>
       </c>
       <c r="H23" t="n">
         <v>72.17</v>
@@ -2556,7 +2556,7 @@
         <v>125.6</v>
       </c>
       <c r="G24" t="n">
-        <v>141.87</v>
+        <v>141.51</v>
       </c>
       <c r="H24" t="n">
         <v>39.09</v>
@@ -2734,7 +2734,7 @@
         <v>54.57</v>
       </c>
       <c r="G26" t="n">
-        <v>61.6</v>
+        <v>61.19</v>
       </c>
       <c r="H26" t="n">
         <v>68.06999999999999</v>
